--- a/error-import-demo-point-list.xlsx
+++ b/error-import-demo-point-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boku no\InternshipProject\student-fita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC91D780-387C-4BCC-BEDA-0DC29248F97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF655BE2-E536-4C92-A30B-826862CDED5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0A5968B0-B636-4779-A398-BA415D297B06}"/>
   </bookViews>
@@ -107,8 +107,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>20242</v>
+        <v>20222</v>
       </c>
       <c r="C2" s="3">
         <v>8.91</v>
@@ -486,11 +486,11 @@
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:E7" ca="1" si="0">RANDBETWEEN(25,130)</f>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F7" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G2" s="3">
         <v>8.9600000000000009</v>
@@ -514,11 +514,11 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="G3" s="3">
         <v>7.18</v>
@@ -532,7 +532,7 @@
         <v>6652385</v>
       </c>
       <c r="B4" s="3">
-        <v>20242</v>
+        <v>20222</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -542,11 +542,11 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G4" s="3">
         <v>6.07</v>
@@ -560,7 +560,7 @@
         <v>6655419</v>
       </c>
       <c r="B5" s="3">
-        <v>20242</v>
+        <v>20222</v>
       </c>
       <c r="C5" s="3">
         <v>1.95</v>
@@ -570,11 +570,11 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G5" s="3">
         <v>1.96</v>
@@ -588,7 +588,7 @@
         <v>6667532</v>
       </c>
       <c r="B6" s="3">
-        <v>20211</v>
+        <v>20222</v>
       </c>
       <c r="C6" s="3">
         <v>9.19</v>
@@ -598,11 +598,11 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G6" s="3">
         <v>9.24</v>
@@ -616,7 +616,7 @@
         <v>6666130</v>
       </c>
       <c r="B7" s="3">
-        <v>20242</v>
+        <v>20222</v>
       </c>
       <c r="C7" s="3">
         <v>0.6</v>
@@ -626,11 +626,11 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="G7" s="3">
         <v>0.61</v>

--- a/error-import-demo-point-list.xlsx
+++ b/error-import-demo-point-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boku no\InternshipProject\student-fita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF655BE2-E536-4C92-A30B-826862CDED5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2657653-6C33-4060-8C72-88436A70EA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0A5968B0-B636-4779-A398-BA415D297B06}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Mã sinh viên</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>ahihi</t>
+  </si>
+  <si>
+    <t>TC Đkí</t>
+  </si>
+  <si>
+    <t>TC đạt</t>
+  </si>
+  <si>
+    <t>TC ko đạt</t>
+  </si>
+  <si>
+    <t>trời</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>hay</t>
   </si>
 </sst>
 </file>
@@ -104,11 +122,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86571EA6-E2F5-44D1-85B1-47F8112D8ED6}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,13 +459,13 @@
     <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -470,8 +490,17 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -486,11 +515,11 @@
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:E7" ca="1" si="0">RANDBETWEEN(25,130)</f>
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F7" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G2" s="3">
         <v>8.9600000000000009</v>
@@ -498,8 +527,17 @@
       <c r="H2" s="3">
         <v>3.58</v>
       </c>
+      <c r="I2" s="5">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>6655051</v>
       </c>
@@ -514,11 +552,11 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G3" s="3">
         <v>7.18</v>
@@ -526,8 +564,17 @@
       <c r="H3" s="3">
         <v>2.87</v>
       </c>
+      <c r="I3" s="5">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>6652385</v>
       </c>
@@ -542,11 +589,11 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3">
         <v>6.07</v>
@@ -554,8 +601,17 @@
       <c r="H4" s="3">
         <v>2.4300000000000002</v>
       </c>
+      <c r="I4" s="5">
+        <v>21</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>6655419</v>
       </c>
@@ -570,11 +626,11 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G5" s="3">
         <v>1.96</v>
@@ -582,8 +638,17 @@
       <c r="H5" s="3">
         <v>0.78</v>
       </c>
+      <c r="I5" s="5">
+        <v>25</v>
+      </c>
+      <c r="J5" s="5">
+        <v>23</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6667532</v>
       </c>
@@ -598,11 +663,11 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G6" s="3">
         <v>9.24</v>
@@ -610,8 +675,17 @@
       <c r="H6" s="3">
         <v>3.69</v>
       </c>
+      <c r="I6" s="5">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5">
+        <v>17</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6666130</v>
       </c>
@@ -626,17 +700,26 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3">
         <v>0.61</v>
       </c>
       <c r="H7" s="3">
         <v>0.24</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="5">
+        <v>15</v>
+      </c>
+      <c r="K7" s="5">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
